--- a/supplementary_data/supplementary_data_10.xlsx
+++ b/supplementary_data/supplementary_data_10.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\team\lapt3u\projects\side\viral_titer\manuscript\_nature_comm_med_version\reviews\_editorial_resubmission\Supplementary Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217D5BB1-B6DF-4ABD-8079-798613830AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835A4FE8-DF26-4E5F-9158-2CFF233BACF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-252" yWindow="696" windowWidth="23004" windowHeight="12612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -1423,6 +1418,7 @@
     <mergeCell ref="A2:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2041,6 +2037,7 @@
     <mergeCell ref="B18:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2659,6 +2656,7 @@
     <mergeCell ref="B18:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3836,6 +3834,7 @@
     <mergeCell ref="B28:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5014,6 +5013,7 @@
     <mergeCell ref="B28:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6195,6 +6195,7 @@
     <mergeCell ref="B28:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7372,6 +7373,7 @@
     <mergeCell ref="B28:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8550,6 +8552,7 @@
     <mergeCell ref="B28:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9727,5 +9730,6 @@
     <mergeCell ref="B28:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/supplementary_data/supplementary_data_10.xlsx
+++ b/supplementary_data/supplementary_data_10.xlsx
@@ -2,10 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835A4FE8-DF26-4E5F-9158-2CFF233BACF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="166925" filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15"/>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217D5BB1-B6DF-4ABD-8079-798613830AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-252" yWindow="696" windowWidth="23004" windowHeight="12612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -1418,7 +1421,6 @@
     <mergeCell ref="A2:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2037,7 +2039,6 @@
     <mergeCell ref="B18:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2656,7 +2657,6 @@
     <mergeCell ref="B18:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3834,7 +3834,6 @@
     <mergeCell ref="B28:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5013,7 +5012,6 @@
     <mergeCell ref="B28:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6195,7 +6193,6 @@
     <mergeCell ref="B28:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7373,7 +7370,6 @@
     <mergeCell ref="B28:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8552,7 +8548,6 @@
     <mergeCell ref="B28:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9730,6 +9725,5 @@
     <mergeCell ref="B28:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>